--- a/Code/Results/Cases/Case_4_83/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_83/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.494573743472984</v>
+        <v>0.8815722556963124</v>
       </c>
       <c r="C2">
-        <v>0.6567625265755055</v>
+        <v>0.2114409464772109</v>
       </c>
       <c r="D2">
-        <v>0.375444643650269</v>
+        <v>0.5999240253903508</v>
       </c>
       <c r="E2">
-        <v>0.1176075061295663</v>
+        <v>0.2300334483836153</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3319551086128953</v>
+        <v>0.5707739732063359</v>
       </c>
       <c r="H2">
-        <v>0.2736764306704913</v>
+        <v>0.7025952422588446</v>
       </c>
       <c r="I2">
-        <v>0.1684442161597381</v>
+        <v>0.4993916693081673</v>
       </c>
       <c r="J2">
-        <v>0.04206344048970934</v>
+        <v>0.1106633300735709</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7780880882601195</v>
+        <v>0.4233633840258975</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.226066703191066</v>
+        <v>2.523295925708524</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.173005732309889</v>
+        <v>0.779178266181475</v>
       </c>
       <c r="C3">
-        <v>0.5740806165520667</v>
+        <v>0.1848042638789309</v>
       </c>
       <c r="D3">
-        <v>0.3476893454834311</v>
+        <v>0.5968583030539065</v>
       </c>
       <c r="E3">
-        <v>0.1117507909656226</v>
+        <v>0.2303273256448577</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.316710321423308</v>
+        <v>0.5744778696322186</v>
       </c>
       <c r="H3">
-        <v>0.2737739204330225</v>
+        <v>0.7090904665238043</v>
       </c>
       <c r="I3">
-        <v>0.1798609724226665</v>
+        <v>0.5086765228882459</v>
       </c>
       <c r="J3">
-        <v>0.04217871286865105</v>
+        <v>0.1116576869621291</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6780488149709498</v>
+        <v>0.3941726583459868</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.193516110133942</v>
+        <v>2.544431225188191</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.975627109802531</v>
+        <v>0.7161530286056177</v>
       </c>
       <c r="C4">
-        <v>0.5233141222865356</v>
+        <v>0.1683884175627384</v>
       </c>
       <c r="D4">
-        <v>0.3311837768326029</v>
+        <v>0.5952790985280387</v>
       </c>
       <c r="E4">
-        <v>0.1083637758367786</v>
+        <v>0.2306272622248571</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3085142289809966</v>
+        <v>0.5772618977649913</v>
       </c>
       <c r="H4">
-        <v>0.2745407591777251</v>
+        <v>0.7134762835499444</v>
       </c>
       <c r="I4">
-        <v>0.1876763901906227</v>
+        <v>0.5147699734557172</v>
       </c>
       <c r="J4">
-        <v>0.04234922895580695</v>
+        <v>0.112325968116517</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6168320711067778</v>
+        <v>0.376317243631263</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.177467101425464</v>
+        <v>2.559310836673859</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.895185879955761</v>
+        <v>0.6904324745417227</v>
       </c>
       <c r="C5">
-        <v>0.5026202822517973</v>
+        <v>0.1616839603443623</v>
       </c>
       <c r="D5">
-        <v>0.3245845684609066</v>
+        <v>0.5947118716952531</v>
       </c>
       <c r="E5">
-        <v>0.1070333875960472</v>
+        <v>0.2307795469218448</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3054497777764951</v>
+        <v>0.5785243288502073</v>
       </c>
       <c r="H5">
-        <v>0.2750232983434842</v>
+        <v>0.7153635194277399</v>
       </c>
       <c r="I5">
-        <v>0.1910549157169132</v>
+        <v>0.5173516384041221</v>
       </c>
       <c r="J5">
-        <v>0.04244273108693619</v>
+        <v>0.1126128126111556</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.591927919602405</v>
+        <v>0.3690585164700835</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.171864283818053</v>
+        <v>2.565852117372614</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.881827523697638</v>
+        <v>0.6861593960490779</v>
       </c>
       <c r="C6">
-        <v>0.499183545333949</v>
+        <v>0.1605698050372837</v>
       </c>
       <c r="D6">
-        <v>0.3234962185959773</v>
+        <v>0.5946222955091969</v>
       </c>
       <c r="E6">
-        <v>0.1068154116020033</v>
+        <v>0.230806649418966</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.304957081047263</v>
+        <v>0.5787416721767968</v>
       </c>
       <c r="H6">
-        <v>0.2751134753117128</v>
+        <v>0.7156829311422825</v>
       </c>
       <c r="I6">
-        <v>0.1916273638594372</v>
+        <v>0.5177862682578702</v>
       </c>
       <c r="J6">
-        <v>0.04245967742437884</v>
+        <v>0.1126613194100283</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5877948685281496</v>
+        <v>0.3678542805294782</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.170989057283194</v>
+        <v>2.566967125426913</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.974542313878914</v>
+        <v>0.7158063008159559</v>
       </c>
       <c r="C7">
-        <v>0.5230350704432283</v>
+        <v>0.1682980585337361</v>
       </c>
       <c r="D7">
-        <v>0.3310942737616358</v>
+        <v>0.5952711396186601</v>
       </c>
       <c r="E7">
-        <v>0.108345635409421</v>
+        <v>0.2306291942717138</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3084718072979342</v>
+        <v>0.5772784057956528</v>
       </c>
       <c r="H7">
-        <v>0.2745465882899367</v>
+        <v>0.7135013307006517</v>
       </c>
       <c r="I7">
-        <v>0.1877211813721491</v>
+        <v>0.5148043919515519</v>
       </c>
       <c r="J7">
-        <v>0.04235039408755981</v>
+        <v>0.1123297778399976</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6164960471353211</v>
+        <v>0.3762192784475431</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.177387812635232</v>
+        <v>2.559397121303263</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.383668272847274</v>
+        <v>0.8462999429476668</v>
       </c>
       <c r="C8">
-        <v>0.6282497909292033</v>
+        <v>0.2022694871328383</v>
       </c>
       <c r="D8">
-        <v>0.3657584092934911</v>
+        <v>0.5988040882707679</v>
       </c>
       <c r="E8">
-        <v>0.1155430465177965</v>
+        <v>0.2301099816856187</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3264464094533679</v>
+        <v>0.5719450933739481</v>
       </c>
       <c r="H8">
-        <v>0.2735585361143009</v>
+        <v>0.7047522295302073</v>
       </c>
       <c r="I8">
-        <v>0.1722080681139513</v>
+        <v>0.5025115218931244</v>
       </c>
       <c r="J8">
-        <v>0.04208182763413859</v>
+        <v>0.1109941968415953</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7435451316324588</v>
+        <v>0.4132846066916827</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.213993502749986</v>
+        <v>2.530188119146459</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.187702525743759</v>
+        <v>1.10090658011967</v>
       </c>
       <c r="C9">
-        <v>0.8348926915882942</v>
+        <v>0.2683893455352688</v>
       </c>
       <c r="D9">
-        <v>0.4383714751246828</v>
+        <v>0.6081352656146919</v>
       </c>
       <c r="E9">
-        <v>0.1314461690943993</v>
+        <v>0.2300397551937472</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3717564773674695</v>
+        <v>0.5655448788371871</v>
       </c>
       <c r="H9">
-        <v>0.2775996948650885</v>
+        <v>0.6907525623900455</v>
       </c>
       <c r="I9">
-        <v>0.148598835496351</v>
+        <v>0.4815268131907722</v>
       </c>
       <c r="J9">
-        <v>0.04239745833073982</v>
+        <v>0.1088335348039848</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.994835466314413</v>
+        <v>0.4864917943567875</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.319537566603685</v>
+        <v>2.488035991959293</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.781373157545374</v>
+        <v>1.287114655970242</v>
       </c>
       <c r="C10">
-        <v>0.9873915468874941</v>
+        <v>0.3166480035827703</v>
       </c>
       <c r="D10">
-        <v>0.4951164058765585</v>
+        <v>0.6164543235250051</v>
       </c>
       <c r="E10">
-        <v>0.1444149149626881</v>
+        <v>0.2305661824406258</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4123997523204963</v>
+        <v>0.5633357274210908</v>
       </c>
       <c r="H10">
-        <v>0.2847598441711625</v>
+        <v>0.6823941256969874</v>
       </c>
       <c r="I10">
-        <v>0.1360246799343017</v>
+        <v>0.4680217625935192</v>
       </c>
       <c r="J10">
-        <v>0.04321828527949734</v>
+        <v>0.1075259273471012</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.181529522521387</v>
+        <v>0.5405798417600636</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.42139343087149</v>
+        <v>2.466334048115726</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.052549528023007</v>
+        <v>1.37162834635717</v>
       </c>
       <c r="C11">
-        <v>1.05703332462798</v>
+        <v>0.3385296678310965</v>
       </c>
       <c r="D11">
-        <v>0.5218050489214932</v>
+        <v>0.6205564380545923</v>
       </c>
       <c r="E11">
-        <v>0.1506402067260915</v>
+        <v>0.2309312356636184</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4327781197783622</v>
+        <v>0.5628761873916801</v>
       </c>
       <c r="H11">
-        <v>0.2890580369746374</v>
+        <v>0.6790106438327825</v>
       </c>
       <c r="I11">
-        <v>0.1314879744489339</v>
+        <v>0.4622952316467597</v>
       </c>
       <c r="J11">
-        <v>0.04373768339830875</v>
+        <v>0.1069919101082668</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.26709606457905</v>
+        <v>0.5652487102281327</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.473902413184135</v>
+        <v>2.458483488048273</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.155437589616213</v>
+        <v>1.40360226415487</v>
       </c>
       <c r="C12">
-        <v>1.083454100356903</v>
+        <v>0.3468050553096305</v>
       </c>
       <c r="D12">
-        <v>0.532049391128993</v>
+        <v>0.6221554408774352</v>
       </c>
       <c r="E12">
-        <v>0.1530485824674486</v>
+        <v>0.231087527777035</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4407929076954247</v>
+        <v>0.5627809197730329</v>
       </c>
       <c r="H12">
-        <v>0.2908471677532418</v>
+        <v>0.6777896770854852</v>
       </c>
       <c r="I12">
-        <v>0.1299535483357417</v>
+        <v>0.4601868834611587</v>
       </c>
       <c r="J12">
-        <v>0.04395699964724997</v>
+        <v>0.1067984449505026</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.299606098095452</v>
+        <v>0.5745989981202371</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.494754614970674</v>
+        <v>2.455802188948354</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.1332692700135</v>
+        <v>1.396717452848407</v>
       </c>
       <c r="C13">
-        <v>1.077761564401612</v>
+        <v>0.3450232866324541</v>
       </c>
       <c r="D13">
-        <v>0.5298367516529652</v>
+        <v>0.6218090390920565</v>
       </c>
       <c r="E13">
-        <v>0.1525275582253194</v>
+        <v>0.2310530645594078</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4390530895426821</v>
+        <v>0.5627979298384389</v>
       </c>
       <c r="H13">
-        <v>0.290454466092342</v>
+        <v>0.6780499520066883</v>
       </c>
       <c r="I13">
-        <v>0.1302756287150579</v>
+        <v>0.4606382748919948</v>
       </c>
       <c r="J13">
-        <v>0.04390873199728063</v>
+        <v>0.106839721571319</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.292599415125082</v>
+        <v>0.5725848658633765</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.490219314617519</v>
+        <v>2.456366675601316</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.061009955575003</v>
+        <v>1.374259462876353</v>
       </c>
       <c r="C14">
-        <v>1.059205935083014</v>
+        <v>0.339210706431345</v>
       </c>
       <c r="D14">
-        <v>0.5226450201760713</v>
+        <v>0.6206870750575604</v>
       </c>
       <c r="E14">
-        <v>0.150837298362994</v>
+        <v>0.2309437320942997</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4334313726284478</v>
+        <v>0.5628667695665968</v>
       </c>
       <c r="H14">
-        <v>0.2892019223385915</v>
+        <v>0.6789089856331429</v>
       </c>
       <c r="I14">
-        <v>0.131357978094865</v>
+        <v>0.4621205696190707</v>
       </c>
       <c r="J14">
-        <v>0.04375526327971713</v>
+        <v>0.1069758180828444</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.269768426815446</v>
+        <v>0.5660177919170479</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.475598050353341</v>
+        <v>2.458257048479652</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.016776241448781</v>
+        <v>1.36049939026725</v>
       </c>
       <c r="C15">
-        <v>1.047846769035004</v>
+        <v>0.3356489233451612</v>
       </c>
       <c r="D15">
-        <v>0.5182582145464778</v>
+        <v>0.6200057788673803</v>
       </c>
       <c r="E15">
-        <v>0.1498087347838037</v>
+        <v>0.2308791139061128</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4300275220648473</v>
+        <v>0.5629192009698869</v>
       </c>
       <c r="H15">
-        <v>0.288456100690496</v>
+        <v>0.6794430211108136</v>
       </c>
       <c r="I15">
-        <v>0.1320452622318271</v>
+        <v>0.4630363591908591</v>
       </c>
       <c r="J15">
-        <v>0.04366425729169521</v>
+        <v>0.1070603216508488</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.255798329388199</v>
+        <v>0.5619963915047066</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.466770679530526</v>
+        <v>2.459452947248678</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.763676831871976</v>
+        <v>1.281587444833065</v>
       </c>
       <c r="C16">
-        <v>0.9828465656391359</v>
+        <v>0.3152165091655945</v>
       </c>
       <c r="D16">
-        <v>0.4933908625991421</v>
+        <v>0.6161926284362664</v>
       </c>
       <c r="E16">
-        <v>0.1440149800516366</v>
+        <v>0.2305448520042219</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4111081978370663</v>
+        <v>0.5633767619890193</v>
       </c>
       <c r="H16">
-        <v>0.2845008835811882</v>
+        <v>0.682623676877526</v>
       </c>
       <c r="I16">
-        <v>0.1363460963337175</v>
+        <v>0.4684044130066418</v>
       </c>
       <c r="J16">
-        <v>0.04318741635213286</v>
+        <v>0.1075620513147442</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.175951736319192</v>
+        <v>0.5389689194650771</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.418092817492806</v>
+        <v>2.46688785309135</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.608720569842376</v>
+        <v>1.233126738108808</v>
       </c>
       <c r="C17">
-        <v>0.9430470173983281</v>
+        <v>0.3026632651291266</v>
       </c>
       <c r="D17">
-        <v>0.4783680016888638</v>
+        <v>0.6139347144653868</v>
       </c>
       <c r="E17">
-        <v>0.1405469862029278</v>
+        <v>0.2303719542661327</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4000038110351056</v>
+        <v>0.5637973829269214</v>
       </c>
       <c r="H17">
-        <v>0.2823492333280342</v>
+        <v>0.6846822166383362</v>
       </c>
       <c r="I17">
-        <v>0.1392968057025321</v>
+        <v>0.4718044843600353</v>
       </c>
       <c r="J17">
-        <v>0.04293340952552072</v>
+        <v>0.1078854305797563</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.127142968190327</v>
+        <v>0.5248583518348084</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.389867181382073</v>
+        <v>2.471967326915632</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.519695999402074</v>
+        <v>1.205235333107566</v>
       </c>
       <c r="C18">
-        <v>0.9201800533878668</v>
+        <v>0.2954362734810161</v>
       </c>
       <c r="D18">
-        <v>0.4698088406452143</v>
+        <v>0.6126659327363768</v>
       </c>
       <c r="E18">
-        <v>0.1385826819789493</v>
+        <v>0.2302843283548128</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3937930308559743</v>
+        <v>0.5640906308668008</v>
       </c>
       <c r="H18">
-        <v>0.2812088877824692</v>
+        <v>0.6859056513496995</v>
       </c>
       <c r="I18">
-        <v>0.1411045017057759</v>
+        <v>0.4737993518949466</v>
       </c>
       <c r="J18">
-        <v>0.04280094853970695</v>
+        <v>0.1080771538559802</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.09912851795864</v>
+        <v>0.5167483733287099</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.374208535444666</v>
+        <v>2.475079155577333</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.489570208244515</v>
+        <v>1.195788730634661</v>
       </c>
       <c r="C19">
-        <v>0.9124416343333621</v>
+        <v>0.2929882017460557</v>
       </c>
       <c r="D19">
-        <v>0.4669245153018267</v>
+        <v>0.6122414843200659</v>
       </c>
       <c r="E19">
-        <v>0.1379227011093391</v>
+        <v>0.2302566899869412</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3917196572406993</v>
+        <v>0.5641987236935222</v>
       </c>
       <c r="H19">
-        <v>0.2808391398988306</v>
+        <v>0.6863266534292336</v>
       </c>
       <c r="I19">
-        <v>0.1417351480063367</v>
+        <v>0.4744815124706641</v>
       </c>
       <c r="J19">
-        <v>0.04275839384852986</v>
+        <v>0.1081430508824894</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.08965298301846</v>
+        <v>0.5140035269406127</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.369003363877454</v>
+        <v>2.476165418108337</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.625205078461022</v>
+        <v>1.238287348123947</v>
       </c>
       <c r="C20">
-        <v>0.9472811213278476</v>
+        <v>0.3040002758507114</v>
       </c>
       <c r="D20">
-        <v>0.4799586817741783</v>
+        <v>0.6141719781181223</v>
       </c>
       <c r="E20">
-        <v>0.1409129853186322</v>
+        <v>0.230389136196262</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.401167475360964</v>
+        <v>0.5637472935731722</v>
       </c>
       <c r="H20">
-        <v>0.2825681349009272</v>
+        <v>0.6844590016125807</v>
       </c>
       <c r="I20">
-        <v>0.1389711649269572</v>
+        <v>0.4714384786652133</v>
       </c>
       <c r="J20">
-        <v>0.04295902614784097</v>
+        <v>0.1078504138141057</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.132332520170422</v>
+        <v>0.5263598234604245</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.392811672620667</v>
+        <v>2.471406912240781</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.082228523731885</v>
+        <v>1.380856735946224</v>
       </c>
       <c r="C21">
-        <v>1.064654758951121</v>
+        <v>0.3409182967512834</v>
       </c>
       <c r="D21">
-        <v>0.5247535616097423</v>
+        <v>0.6210153854944451</v>
       </c>
       <c r="E21">
-        <v>0.1513323500608053</v>
+        <v>0.230975355728237</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.435074302114117</v>
+        <v>0.5628444098666563</v>
       </c>
       <c r="H21">
-        <v>0.2895653432170917</v>
+        <v>0.6786550300574135</v>
       </c>
       <c r="I21">
-        <v>0.1310349736004213</v>
+        <v>0.4616835492550457</v>
       </c>
       <c r="J21">
-        <v>0.04379971287236373</v>
+        <v>0.1069356055362256</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.276471380468834</v>
+        <v>0.5679464677379826</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.479865722922966</v>
+        <v>2.457693881452826</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.38210307609404</v>
+        <v>1.473860824318535</v>
       </c>
       <c r="C22">
-        <v>1.141655904334812</v>
+        <v>0.3649836441217644</v>
       </c>
       <c r="D22">
-        <v>0.5548398728445534</v>
+        <v>0.6257538305883088</v>
       </c>
       <c r="E22">
-        <v>0.1584413932385687</v>
+        <v>0.2314637171221321</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4589846547336691</v>
+        <v>0.5627134872083559</v>
       </c>
       <c r="H22">
-        <v>0.2950859037703566</v>
+        <v>0.6752132104121387</v>
       </c>
       <c r="I22">
-        <v>0.1269248715367723</v>
+        <v>0.4556589194348568</v>
       </c>
       <c r="J22">
-        <v>0.04448191721212069</v>
+        <v>0.1063887642290418</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.371311440396653</v>
+        <v>0.595176369940404</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.542445730445991</v>
+        <v>2.450431301072825</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.221932197897559</v>
+        <v>1.424239230639614</v>
       </c>
       <c r="C23">
-        <v>1.100528733458759</v>
+        <v>0.3521454015338463</v>
       </c>
       <c r="D23">
-        <v>0.5387038611478943</v>
+        <v>0.6232005276183656</v>
       </c>
       <c r="E23">
-        <v>0.1546183132135894</v>
+        <v>0.2311934418435939</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4460539013847438</v>
+        <v>0.5627412441352533</v>
       </c>
       <c r="H23">
-        <v>0.2920486420413511</v>
+        <v>0.6770180004903921</v>
       </c>
       <c r="I23">
-        <v>0.1290153185087881</v>
+        <v>0.4588422143441804</v>
       </c>
       <c r="J23">
-        <v>0.04410508903697163</v>
+        <v>0.1066759504405859</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.320629587685801</v>
+        <v>0.5806387816190863</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.508497236126601</v>
+        <v>2.454151689380723</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.617752242412621</v>
+        <v>1.235954331826974</v>
       </c>
       <c r="C24">
-        <v>0.94536683907981</v>
+        <v>0.3033958443096765</v>
       </c>
       <c r="D24">
-        <v>0.4792392942496235</v>
+        <v>0.6140646198782065</v>
       </c>
       <c r="E24">
-        <v>0.1407474255686409</v>
+        <v>0.2303813315666403</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4006408449511554</v>
+        <v>0.5637697788006477</v>
       </c>
       <c r="H24">
-        <v>0.2824688692858217</v>
+        <v>0.684559792677419</v>
       </c>
       <c r="I24">
-        <v>0.139118041464787</v>
+        <v>0.471603824878688</v>
       </c>
       <c r="J24">
-        <v>0.0429474027246961</v>
+        <v>0.1078662268019812</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.129986180512759</v>
+        <v>0.5256810007068538</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.391478702921319</v>
+        <v>2.471659679037771</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.969817878502113</v>
+        <v>1.032173665913831</v>
       </c>
       <c r="C25">
-        <v>0.7789086408107266</v>
+        <v>0.2505571565302205</v>
       </c>
       <c r="D25">
-        <v>0.4181748649417472</v>
+        <v>0.6053538285881501</v>
       </c>
       <c r="E25">
-        <v>0.1269331865413896</v>
+        <v>0.2299572558731349</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3583007291235276</v>
+        <v>0.5668398599104449</v>
       </c>
       <c r="H25">
-        <v>0.2758122359728077</v>
+        <v>0.6942015906986398</v>
       </c>
       <c r="I25">
-        <v>0.1541950697521557</v>
+        <v>0.4868685724733215</v>
       </c>
       <c r="J25">
-        <v>0.04221442603004277</v>
+        <v>0.1093689370378428</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9265496434119029</v>
+        <v>0.4666330331801163</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.287000836091039</v>
+        <v>2.497815121271884</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_83/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_83/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8815722556963124</v>
+        <v>2.49457374347304</v>
       </c>
       <c r="C2">
-        <v>0.2114409464772109</v>
+        <v>0.6567625265754771</v>
       </c>
       <c r="D2">
-        <v>0.5999240253903508</v>
+        <v>0.3754446436501269</v>
       </c>
       <c r="E2">
-        <v>0.2300334483836153</v>
+        <v>0.1176075061295876</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5707739732063359</v>
+        <v>0.3319551086127888</v>
       </c>
       <c r="H2">
-        <v>0.7025952422588446</v>
+        <v>0.2736764306705055</v>
       </c>
       <c r="I2">
-        <v>0.4993916693081673</v>
+        <v>0.1684442161597559</v>
       </c>
       <c r="J2">
-        <v>0.1106633300735709</v>
+        <v>0.04206344048974486</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4233633840258975</v>
+        <v>0.7780880882601124</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.523295925708524</v>
+        <v>1.226066703191151</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.779178266181475</v>
+        <v>2.173005732309946</v>
       </c>
       <c r="C3">
-        <v>0.1848042638789309</v>
+        <v>0.5740806165520098</v>
       </c>
       <c r="D3">
-        <v>0.5968583030539065</v>
+        <v>0.3476893454834737</v>
       </c>
       <c r="E3">
-        <v>0.2303273256448577</v>
+        <v>0.1117507909655799</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5744778696322186</v>
+        <v>0.3167103214233506</v>
       </c>
       <c r="H3">
-        <v>0.7090904665238043</v>
+        <v>0.2737739204330154</v>
       </c>
       <c r="I3">
-        <v>0.5086765228882459</v>
+        <v>0.1798609724226754</v>
       </c>
       <c r="J3">
-        <v>0.1116576869621291</v>
+        <v>0.04217871286862973</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3941726583459868</v>
+        <v>0.6780488149709427</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.544431225188191</v>
+        <v>1.193516110133885</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7161530286056177</v>
+        <v>1.975627109802446</v>
       </c>
       <c r="C4">
-        <v>0.1683884175627384</v>
+        <v>0.5233141222863367</v>
       </c>
       <c r="D4">
-        <v>0.5952790985280387</v>
+        <v>0.3311837768323755</v>
       </c>
       <c r="E4">
-        <v>0.2306272622248571</v>
+        <v>0.108363775836807</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.5772618977649913</v>
+        <v>0.3085142289810108</v>
       </c>
       <c r="H4">
-        <v>0.7134762835499444</v>
+        <v>0.2745407591777251</v>
       </c>
       <c r="I4">
-        <v>0.5147699734557172</v>
+        <v>0.1876763901906369</v>
       </c>
       <c r="J4">
-        <v>0.112325968116517</v>
+        <v>0.04234922895578563</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.376317243631263</v>
+        <v>0.6168320711067707</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.559310836673859</v>
+        <v>1.17746710142552</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6904324745417227</v>
+        <v>1.895185879955847</v>
       </c>
       <c r="C5">
-        <v>0.1616839603443623</v>
+        <v>0.5026202822520247</v>
       </c>
       <c r="D5">
-        <v>0.5947118716952531</v>
+        <v>0.3245845684607787</v>
       </c>
       <c r="E5">
-        <v>0.2307795469218448</v>
+        <v>0.1070333875960365</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.5785243288502073</v>
+        <v>0.3054497777764382</v>
       </c>
       <c r="H5">
-        <v>0.7153635194277399</v>
+        <v>0.2750232983434842</v>
       </c>
       <c r="I5">
-        <v>0.5173516384041221</v>
+        <v>0.1910549157169257</v>
       </c>
       <c r="J5">
-        <v>0.1126128126111556</v>
+        <v>0.04244273108692198</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3690585164700835</v>
+        <v>0.591927919602405</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.565852117372614</v>
+        <v>1.171864283818039</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6861593960490779</v>
+        <v>1.881827523697609</v>
       </c>
       <c r="C6">
-        <v>0.1605698050372837</v>
+        <v>0.499183545333949</v>
       </c>
       <c r="D6">
-        <v>0.5946222955091969</v>
+        <v>0.3234962185956505</v>
       </c>
       <c r="E6">
-        <v>0.230806649418966</v>
+        <v>0.1068154116020033</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5787416721767968</v>
+        <v>0.304957081047263</v>
       </c>
       <c r="H6">
-        <v>0.7156829311422825</v>
+        <v>0.2751134753117128</v>
       </c>
       <c r="I6">
-        <v>0.5177862682578702</v>
+        <v>0.1916273638594497</v>
       </c>
       <c r="J6">
-        <v>0.1126613194100283</v>
+        <v>0.042459677424322</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3678542805294782</v>
+        <v>0.587794868528178</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.566967125426913</v>
+        <v>1.170989057283208</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7158063008159559</v>
+        <v>1.974542313878942</v>
       </c>
       <c r="C7">
-        <v>0.1682980585337361</v>
+        <v>0.5230350704434557</v>
       </c>
       <c r="D7">
-        <v>0.5952711396186601</v>
+        <v>0.3310942737615505</v>
       </c>
       <c r="E7">
-        <v>0.2306291942717138</v>
+        <v>0.1083456354094174</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.5772784057956528</v>
+        <v>0.3084718072979271</v>
       </c>
       <c r="H7">
-        <v>0.7135013307006517</v>
+        <v>0.2745465882899367</v>
       </c>
       <c r="I7">
-        <v>0.5148043919515519</v>
+        <v>0.1877211813721473</v>
       </c>
       <c r="J7">
-        <v>0.1123297778399976</v>
+        <v>0.04235039408754915</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3762192784475431</v>
+        <v>0.6164960471352927</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.559397121303263</v>
+        <v>1.177387812635274</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8462999429476668</v>
+        <v>2.38366827284716</v>
       </c>
       <c r="C8">
-        <v>0.2022694871328383</v>
+        <v>0.6282497909292033</v>
       </c>
       <c r="D8">
-        <v>0.5988040882707679</v>
+        <v>0.3657584092934627</v>
       </c>
       <c r="E8">
-        <v>0.2301099816856187</v>
+        <v>0.1155430465177822</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5719450933739481</v>
+        <v>0.3264464094533679</v>
       </c>
       <c r="H8">
-        <v>0.7047522295302073</v>
+        <v>0.273558536114308</v>
       </c>
       <c r="I8">
-        <v>0.5025115218931244</v>
+        <v>0.172208068113946</v>
       </c>
       <c r="J8">
-        <v>0.1109941968415953</v>
+        <v>0.04208182763412793</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4132846066916827</v>
+        <v>0.7435451316324375</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.530188119146459</v>
+        <v>1.213993502749972</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.10090658011967</v>
+        <v>3.187702525743532</v>
       </c>
       <c r="C9">
-        <v>0.2683893455352688</v>
+        <v>0.8348926915885784</v>
       </c>
       <c r="D9">
-        <v>0.6081352656146919</v>
+        <v>0.4383714751247396</v>
       </c>
       <c r="E9">
-        <v>0.2300397551937472</v>
+        <v>0.13144616909441</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5655448788371871</v>
+        <v>0.3717564773674269</v>
       </c>
       <c r="H9">
-        <v>0.6907525623900455</v>
+        <v>0.2775996948650885</v>
       </c>
       <c r="I9">
-        <v>0.4815268131907722</v>
+        <v>0.1485988354963688</v>
       </c>
       <c r="J9">
-        <v>0.1088335348039848</v>
+        <v>0.04239745833066166</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4864917943567875</v>
+        <v>0.9948354663144059</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.488035991959293</v>
+        <v>1.319537566603657</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.287114655970242</v>
+        <v>3.781373157545261</v>
       </c>
       <c r="C10">
-        <v>0.3166480035827703</v>
+        <v>0.9873915468874657</v>
       </c>
       <c r="D10">
-        <v>0.6164543235250051</v>
+        <v>0.4951164058763027</v>
       </c>
       <c r="E10">
-        <v>0.2305661824406258</v>
+        <v>0.1444149149626703</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5633357274210908</v>
+        <v>0.4123997523204963</v>
       </c>
       <c r="H10">
-        <v>0.6823941256969874</v>
+        <v>0.2847598441711483</v>
       </c>
       <c r="I10">
-        <v>0.4680217625935192</v>
+        <v>0.1360246799343017</v>
       </c>
       <c r="J10">
-        <v>0.1075259273471012</v>
+        <v>0.04321828527953997</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5405798417600636</v>
+        <v>1.181529522521387</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.466334048115726</v>
+        <v>1.42139343087149</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.37162834635717</v>
+        <v>4.052549528022837</v>
       </c>
       <c r="C11">
-        <v>0.3385296678310965</v>
+        <v>1.057033324627753</v>
       </c>
       <c r="D11">
-        <v>0.6205564380545923</v>
+        <v>0.5218050489216068</v>
       </c>
       <c r="E11">
-        <v>0.2309312356636184</v>
+        <v>0.1506402067260986</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5628761873916801</v>
+        <v>0.4327781197783906</v>
       </c>
       <c r="H11">
-        <v>0.6790106438327825</v>
+        <v>0.2890580369746232</v>
       </c>
       <c r="I11">
-        <v>0.4622952316467597</v>
+        <v>0.1314879744489517</v>
       </c>
       <c r="J11">
-        <v>0.1069919101082668</v>
+        <v>0.04373768339829454</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5652487102281327</v>
+        <v>1.26709606457905</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.458483488048273</v>
+        <v>1.473902413184021</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.40360226415487</v>
+        <v>4.155437589615929</v>
       </c>
       <c r="C12">
-        <v>0.3468050553096305</v>
+        <v>1.083454100356619</v>
       </c>
       <c r="D12">
-        <v>0.6221554408774352</v>
+        <v>0.5320493911290214</v>
       </c>
       <c r="E12">
-        <v>0.231087527777035</v>
+        <v>0.1530485824674237</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5627809197730329</v>
+        <v>0.4407929076954389</v>
       </c>
       <c r="H12">
-        <v>0.6777896770854852</v>
+        <v>0.2908471677532418</v>
       </c>
       <c r="I12">
-        <v>0.4601868834611587</v>
+        <v>0.1299535483357772</v>
       </c>
       <c r="J12">
-        <v>0.1067984449505026</v>
+        <v>0.04395699964724642</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5745989981202371</v>
+        <v>1.299606098095424</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.455802188948354</v>
+        <v>1.494754614970731</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.396717452848407</v>
+        <v>4.133269270013727</v>
       </c>
       <c r="C13">
-        <v>0.3450232866324541</v>
+        <v>1.077761564401612</v>
       </c>
       <c r="D13">
-        <v>0.6218090390920565</v>
+        <v>0.5298367516531073</v>
       </c>
       <c r="E13">
-        <v>0.2310530645594078</v>
+        <v>0.1525275582253336</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5627979298384389</v>
+        <v>0.4390530895427105</v>
       </c>
       <c r="H13">
-        <v>0.6780499520066883</v>
+        <v>0.290454466092342</v>
       </c>
       <c r="I13">
-        <v>0.4606382748919948</v>
+        <v>0.1302756287150473</v>
       </c>
       <c r="J13">
-        <v>0.106839721571319</v>
+        <v>0.04390873199730549</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5725848658633765</v>
+        <v>1.292599415125053</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.456366675601316</v>
+        <v>1.490219314617519</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.374259462876353</v>
+        <v>4.061009955575059</v>
       </c>
       <c r="C14">
-        <v>0.339210706431345</v>
+        <v>1.059205935083014</v>
       </c>
       <c r="D14">
-        <v>0.6206870750575604</v>
+        <v>0.5226450201760713</v>
       </c>
       <c r="E14">
-        <v>0.2309437320942997</v>
+        <v>0.1508372983630082</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5628667695665968</v>
+        <v>0.4334313726285188</v>
       </c>
       <c r="H14">
-        <v>0.6789089856331429</v>
+        <v>0.2892019223386058</v>
       </c>
       <c r="I14">
-        <v>0.4621205696190707</v>
+        <v>0.131357978094865</v>
       </c>
       <c r="J14">
-        <v>0.1069758180828444</v>
+        <v>0.04375526327977042</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5660177919170479</v>
+        <v>1.269768426815432</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.458257048479652</v>
+        <v>1.475598050353312</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.36049939026725</v>
+        <v>4.016776241448781</v>
       </c>
       <c r="C15">
-        <v>0.3356489233451612</v>
+        <v>1.047846769035004</v>
       </c>
       <c r="D15">
-        <v>0.6200057788673803</v>
+        <v>0.5182582145467336</v>
       </c>
       <c r="E15">
-        <v>0.2308791139061128</v>
+        <v>0.149808734783786</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5629192009698869</v>
+        <v>0.4300275220649468</v>
       </c>
       <c r="H15">
-        <v>0.6794430211108136</v>
+        <v>0.2884561006905102</v>
       </c>
       <c r="I15">
-        <v>0.4630363591908591</v>
+        <v>0.1320452622318236</v>
       </c>
       <c r="J15">
-        <v>0.1070603216508488</v>
+        <v>0.04366425729169521</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5619963915047066</v>
+        <v>1.255798329388199</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.459452947248678</v>
+        <v>1.466770679530612</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.281587444833065</v>
+        <v>3.76367683187209</v>
       </c>
       <c r="C16">
-        <v>0.3152165091655945</v>
+        <v>0.982846565639278</v>
       </c>
       <c r="D16">
-        <v>0.6161926284362664</v>
+        <v>0.4933908625991137</v>
       </c>
       <c r="E16">
-        <v>0.2305448520042219</v>
+        <v>0.1440149800516402</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5633767619890193</v>
+        <v>0.4111081978370095</v>
       </c>
       <c r="H16">
-        <v>0.682623676877526</v>
+        <v>0.284500883581174</v>
       </c>
       <c r="I16">
-        <v>0.4684044130066418</v>
+        <v>0.1363460963337282</v>
       </c>
       <c r="J16">
-        <v>0.1075620513147442</v>
+        <v>0.04318741635227852</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5389689194650771</v>
+        <v>1.175951736319192</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.46688785309135</v>
+        <v>1.418092817492777</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.233126738108808</v>
+        <v>3.608720569842433</v>
       </c>
       <c r="C17">
-        <v>0.3026632651291266</v>
+        <v>0.9430470173984133</v>
       </c>
       <c r="D17">
-        <v>0.6139347144653868</v>
+        <v>0.4783680016888638</v>
       </c>
       <c r="E17">
-        <v>0.2303719542661327</v>
+        <v>0.1405469862029101</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5637973829269214</v>
+        <v>0.400003811035134</v>
       </c>
       <c r="H17">
-        <v>0.6846822166383362</v>
+        <v>0.2823492333279205</v>
       </c>
       <c r="I17">
-        <v>0.4718044843600353</v>
+        <v>0.1392968057025179</v>
       </c>
       <c r="J17">
-        <v>0.1078854305797563</v>
+        <v>0.04293340952553493</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5248583518348084</v>
+        <v>1.127142968190299</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.471967326915632</v>
+        <v>1.389867181382016</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.205235333107566</v>
+        <v>3.519695999402245</v>
       </c>
       <c r="C18">
-        <v>0.2954362734810161</v>
+        <v>0.9201800533880657</v>
       </c>
       <c r="D18">
-        <v>0.6126659327363768</v>
+        <v>0.4698088406454133</v>
       </c>
       <c r="E18">
-        <v>0.2302843283548128</v>
+        <v>0.1385826819789493</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5640906308668008</v>
+        <v>0.3937930308560169</v>
       </c>
       <c r="H18">
-        <v>0.6859056513496995</v>
+        <v>0.2812088877823555</v>
       </c>
       <c r="I18">
-        <v>0.4737993518949466</v>
+        <v>0.1411045017057901</v>
       </c>
       <c r="J18">
-        <v>0.1080771538559802</v>
+        <v>0.04280094853963234</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5167483733287099</v>
+        <v>1.09912851795864</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.475079155577333</v>
+        <v>1.374208535444666</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.195788730634661</v>
+        <v>3.489570208244402</v>
       </c>
       <c r="C19">
-        <v>0.2929882017460557</v>
+        <v>0.9124416343333337</v>
       </c>
       <c r="D19">
-        <v>0.6122414843200659</v>
+        <v>0.4669245153018267</v>
       </c>
       <c r="E19">
-        <v>0.2302566899869412</v>
+        <v>0.1379227011093427</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5641987236935222</v>
+        <v>0.391719657240742</v>
       </c>
       <c r="H19">
-        <v>0.6863266534292336</v>
+        <v>0.2808391398987169</v>
       </c>
       <c r="I19">
-        <v>0.4744815124706641</v>
+        <v>0.1417351480063367</v>
       </c>
       <c r="J19">
-        <v>0.1081430508824894</v>
+        <v>0.04275839384849789</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5140035269406127</v>
+        <v>1.089652983018468</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.476165418108337</v>
+        <v>1.369003363877482</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.238287348123947</v>
+        <v>3.625205078461136</v>
       </c>
       <c r="C20">
-        <v>0.3040002758507114</v>
+        <v>0.9472811213280465</v>
       </c>
       <c r="D20">
-        <v>0.6141719781181223</v>
+        <v>0.4799586817740646</v>
       </c>
       <c r="E20">
-        <v>0.230389136196262</v>
+        <v>0.1409129853186215</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5637472935731722</v>
+        <v>0.4011674753609498</v>
       </c>
       <c r="H20">
-        <v>0.6844590016125807</v>
+        <v>0.2825681349008136</v>
       </c>
       <c r="I20">
-        <v>0.4714384786652133</v>
+        <v>0.1389711649269607</v>
       </c>
       <c r="J20">
-        <v>0.1078504138141057</v>
+        <v>0.04295902614771308</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5263598234604245</v>
+        <v>1.132332520170422</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.471406912240781</v>
+        <v>1.39281167262078</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.380856735946224</v>
+        <v>4.082228523731828</v>
       </c>
       <c r="C21">
-        <v>0.3409182967512834</v>
+        <v>1.064654758951178</v>
       </c>
       <c r="D21">
-        <v>0.6210153854944451</v>
+        <v>0.5247535616095149</v>
       </c>
       <c r="E21">
-        <v>0.230975355728237</v>
+        <v>0.1513323500607946</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5628444098666563</v>
+        <v>0.4350743021140602</v>
       </c>
       <c r="H21">
-        <v>0.6786550300574135</v>
+        <v>0.289565343216978</v>
       </c>
       <c r="I21">
-        <v>0.4616835492550457</v>
+        <v>0.1310349736004106</v>
       </c>
       <c r="J21">
-        <v>0.1069356055362256</v>
+        <v>0.04379971287236373</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5679464677379826</v>
+        <v>1.276471380468834</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.457693881452826</v>
+        <v>1.479865722923051</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.473860824318535</v>
+        <v>4.38210307609404</v>
       </c>
       <c r="C22">
-        <v>0.3649836441217644</v>
+        <v>1.141655904334584</v>
       </c>
       <c r="D22">
-        <v>0.6257538305883088</v>
+        <v>0.554839872844326</v>
       </c>
       <c r="E22">
-        <v>0.2314637171221321</v>
+        <v>0.1584413932385509</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5627134872083559</v>
+        <v>0.4589846547335981</v>
       </c>
       <c r="H22">
-        <v>0.6752132104121387</v>
+        <v>0.2950859037703424</v>
       </c>
       <c r="I22">
-        <v>0.4556589194348568</v>
+        <v>0.1269248715367581</v>
       </c>
       <c r="J22">
-        <v>0.1063887642290418</v>
+        <v>0.04448191721212424</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.595176369940404</v>
+        <v>1.371311440396653</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.450431301072825</v>
+        <v>1.542445730445934</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.424239230639614</v>
+        <v>4.221932197897615</v>
       </c>
       <c r="C23">
-        <v>0.3521454015338463</v>
+        <v>1.10052873345893</v>
       </c>
       <c r="D23">
-        <v>0.6232005276183656</v>
+        <v>0.5387038611478374</v>
       </c>
       <c r="E23">
-        <v>0.2311934418435939</v>
+        <v>0.1546183132136001</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5627412441352533</v>
+        <v>0.4460539013847153</v>
       </c>
       <c r="H23">
-        <v>0.6770180004903921</v>
+        <v>0.2920486420413511</v>
       </c>
       <c r="I23">
-        <v>0.4588422143441804</v>
+        <v>0.1290153185087881</v>
       </c>
       <c r="J23">
-        <v>0.1066759504405859</v>
+        <v>0.04410508903701782</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5806387816190863</v>
+        <v>1.320629587685815</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.454151689380723</v>
+        <v>1.508497236126573</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.235954331826974</v>
+        <v>3.617752242412905</v>
       </c>
       <c r="C24">
-        <v>0.3033958443096765</v>
+        <v>0.9453668390797247</v>
       </c>
       <c r="D24">
-        <v>0.6140646198782065</v>
+        <v>0.4792392942495951</v>
       </c>
       <c r="E24">
-        <v>0.2303813315666403</v>
+        <v>0.1407474255686409</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5637697788006477</v>
+        <v>0.4006408449511554</v>
       </c>
       <c r="H24">
-        <v>0.684559792677419</v>
+        <v>0.2824688692859354</v>
       </c>
       <c r="I24">
-        <v>0.471603824878688</v>
+        <v>0.1391180414647835</v>
       </c>
       <c r="J24">
-        <v>0.1078662268019812</v>
+        <v>0.04294740272470321</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5256810007068538</v>
+        <v>1.129986180512731</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.471659679037771</v>
+        <v>1.391478702921376</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.032173665913831</v>
+        <v>2.969817878502113</v>
       </c>
       <c r="C25">
-        <v>0.2505571565302205</v>
+        <v>0.7789086408104424</v>
       </c>
       <c r="D25">
-        <v>0.6053538285881501</v>
+        <v>0.4181748649414345</v>
       </c>
       <c r="E25">
-        <v>0.2299572558731349</v>
+        <v>0.1269331865413861</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5668398599104449</v>
+        <v>0.3583007291235418</v>
       </c>
       <c r="H25">
-        <v>0.6942015906986398</v>
+        <v>0.2758122359728077</v>
       </c>
       <c r="I25">
-        <v>0.4868685724733215</v>
+        <v>0.1541950697521539</v>
       </c>
       <c r="J25">
-        <v>0.1093689370378428</v>
+        <v>0.04221442603000014</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4666330331801163</v>
+        <v>0.9265496434118958</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.497815121271884</v>
+        <v>1.287000836091011</v>
       </c>
     </row>
   </sheetData>
